--- a/simplepower/GridData/grid_data4.xlsx
+++ b/simplepower/GridData/grid_data4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/simplepower/models/grid_model_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uisn-my.sharepoint.com/personal/emelf_usn_no/Documents/PhD - SysOpt/Python Work/Custom Modules/simplepower/simplepower/GridData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="295" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C188485-54B8-4C96-AFD1-8F11960A86F7}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="8_{76AC49D0-40D7-45F9-8AB9-9B675F322E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9E4A55D2-114B-4F5D-90AB-1DFAFEC3EB05}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{120A7045-FD09-44EC-B7BA-2F1FCE4B68C8}"/>
   </bookViews>
   <sheets>
     <sheet name="busbars" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,6 @@
     <t>Load 1</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>s_base_mva</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>v_base_kV</t>
+  </si>
+  <si>
+    <t>I_lim_A</t>
   </si>
 </sst>
 </file>
@@ -204,10 +204,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -223,10 +222,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -518,7 +513,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,14 +527,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -550,7 +545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -561,7 +556,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -572,7 +567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -590,22 +585,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F24F74-C913-4254-AF10-9102B3F26C94}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,28 +608,31 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -642,26 +640,32 @@
         <v>22</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
         <v>2</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -673,15 +677,15 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -689,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
@@ -704,13 +708,13 @@
         <v>10</v>
       </c>
       <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>40</v>
       </c>
-      <c r="I1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -720,8 +724,8 @@
       <c r="C2">
         <v>100</v>
       </c>
-      <c r="D2" t="s">
-        <v>38</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -746,18 +750,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F6A304-BB7B-47ED-B291-B0B7D490CDE8}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -777,7 +781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -794,14 +798,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
       <c r="B3">
         <v>20</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
@@ -813,9 +817,6 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -827,16 +828,16 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +851,7 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s">
         <v>22</v>
@@ -883,7 +884,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
